--- a/2017_2/204-Gnjatovic/204-1015-1-SP.xlsx
+++ b/2017_2/204-Gnjatovic/204-1015-1-SP.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\INZSERVER\RedirectedFolders\Nejab\My Documents\GitHub\PNZ\2017_2\204-Gnjatovic\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Fiscal year*</t>
   </si>
@@ -81,10 +86,6 @@
     <t>8,7</t>
   </si>
   <si>
-    <t>Table 3: Public debt service (principal and
- interest) capacity of the Kingdom of Yugoslavia: Debt service-to-public revenue ratio 1929-1939</t>
-  </si>
-  <si>
     <t xml:space="preserve">Public revenue, million dinars </t>
   </si>
   <si>
@@ -92,20 +93,16 @@
   </si>
   <si>
     <t xml:space="preserve">Public debt service/ Public revenue, in % </t>
-  </si>
-  <si>
-    <t>*In the Kingdom of SCS (Yugoslavia), fiscal year started on April 1st in a year and ended on March 31st in the following year.
-Source:  South-Eastern European Monetary and Economic Statistics from the Nineteenth Century to the World War Two, Bank of Greece, Bulgarian National Bank, National Bank of Romania, Oesetreichische Nationalbank, Athens, Sofia, Bucharest, Vienna: 2014, str.335.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,58 +158,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Officeova tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pisarna">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -250,9 +249,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pisarna">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,9 +283,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,9 +318,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pisarna">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -493,14 +494,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
@@ -509,214 +510,191 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="42.75" customHeight="1">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30.75" hidden="1" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4" s="2" t="s">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11">
+      <c r="B2" s="6">
         <v>15952</v>
       </c>
-      <c r="D4" s="13">
+      <c r="C2" s="8">
         <v>873</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="B5" s="2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11">
+      <c r="B3" s="6">
         <v>13319</v>
       </c>
-      <c r="D5" s="11">
+      <c r="C3" s="6">
         <v>1097</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="B6" s="2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11">
+      <c r="B4" s="6">
         <v>10964</v>
       </c>
-      <c r="D6" s="13">
+      <c r="C4" s="8">
         <v>919</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="2" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11">
+      <c r="B5" s="6">
         <v>9681</v>
       </c>
-      <c r="D7" s="11">
+      <c r="C5" s="6">
         <v>1010</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="B8" s="2" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="11">
+      <c r="B6" s="6">
         <v>10015</v>
       </c>
-      <c r="D8" s="13">
+      <c r="C6" s="8">
         <v>797</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="B9" s="2" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="11">
+      <c r="B7" s="6">
         <v>9758</v>
       </c>
-      <c r="D9" s="13">
+      <c r="C7" s="8">
         <v>686</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="B10" s="2" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="11">
+      <c r="B8" s="6">
         <v>9989</v>
       </c>
-      <c r="D10" s="13">
+      <c r="C8" s="8">
         <v>678</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="B11" s="2" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="11">
+      <c r="B9" s="6">
         <v>10572</v>
       </c>
-      <c r="D11" s="13">
+      <c r="C9" s="8">
         <v>718</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="D9" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="B12" s="2" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="11">
+      <c r="B10" s="6">
         <v>11987</v>
       </c>
-      <c r="D12" s="13">
+      <c r="C10" s="8">
         <v>971</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="D10" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="2" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="11">
+      <c r="B11" s="6">
         <v>12385</v>
       </c>
-      <c r="D13" s="11">
+      <c r="C11" s="6">
         <v>1008</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="D11" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="B14" s="2" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="11">
+      <c r="B12" s="6">
         <v>13118</v>
       </c>
-      <c r="D14" s="11">
+      <c r="C12" s="6">
         <v>1141</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="D12" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="73.5" customHeight="1">
-      <c r="B15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+    <row r="14" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
+  <mergeCells count="2">
     <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -724,24 +702,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
